--- a/UserControl tervek.xlsx
+++ b/UserControl tervek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilia\Desktop\Minden\Iskola\2_14_SZFT\Asztali_mobil\Asztali_alk\2021_11_04_dama_GE_PB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B70A7-E2A2-4DB3-9878-7E9AB975FEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD5C1C6-6638-4D92-81B3-BC6310A612B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{D82FC3B4-29AC-4FE7-BD71-1F187BD784F9}"/>
   </bookViews>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -189,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -506,7 +507,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,50 +544,26 @@
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>2</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3</v>
-      </c>
-      <c r="S2" s="10">
-        <v>4</v>
-      </c>
-      <c r="T2" s="10">
-        <v>5</v>
-      </c>
-      <c r="U2" s="10">
-        <v>6</v>
-      </c>
-      <c r="V2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
       <c r="Y2">
@@ -596,26 +573,26 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
       <c r="W3" s="5"/>
       <c r="X3" s="6"/>
       <c r="Y3">
@@ -625,66 +602,26 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>6</v>
-      </c>
-      <c r="I4" s="10">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10">
-        <v>8</v>
-      </c>
-      <c r="K4" s="10">
-        <v>9</v>
-      </c>
-      <c r="L4" s="10">
-        <v>10</v>
-      </c>
-      <c r="M4" s="10">
-        <v>11</v>
-      </c>
-      <c r="N4" s="10">
-        <v>12</v>
-      </c>
-      <c r="O4" s="10">
-        <v>13</v>
-      </c>
-      <c r="P4" s="10">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>15</v>
-      </c>
-      <c r="R4" s="10">
-        <v>16</v>
-      </c>
-      <c r="S4" s="10">
-        <v>17</v>
-      </c>
-      <c r="T4" s="10">
-        <v>18</v>
-      </c>
-      <c r="U4" s="10">
-        <v>19</v>
-      </c>
-      <c r="V4" s="10">
-        <v>20</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
       <c r="W4" s="5"/>
       <c r="X4" s="6"/>
       <c r="Y4">
@@ -694,28 +631,26 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="5"/>
       <c r="X5" s="6"/>
       <c r="Y5">
@@ -725,28 +660,26 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
       <c r="W6" s="5"/>
       <c r="X6" s="6"/>
       <c r="Y6">
@@ -756,28 +689,26 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6"/>
       <c r="Y7">
@@ -787,28 +718,26 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6"/>
       <c r="Y8">
@@ -818,28 +747,26 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="10">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9">
@@ -849,28 +776,26 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6"/>
       <c r="Y10">
@@ -880,28 +805,26 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="10">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
       <c r="W11" s="5"/>
       <c r="X11" s="6"/>
       <c r="Y11">
@@ -911,28 +834,26 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="10">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
       <c r="W12" s="5"/>
       <c r="X12" s="6"/>
       <c r="Y12">
@@ -942,28 +863,26 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="10">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
       <c r="W13" s="5"/>
       <c r="X13" s="6"/>
       <c r="Y13">
@@ -973,28 +892,26 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="10">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
       <c r="W14" s="5"/>
       <c r="X14" s="6"/>
       <c r="Y14">
@@ -1004,28 +921,26 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="10">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
       <c r="W15" s="5"/>
       <c r="X15" s="6"/>
       <c r="Y15">
@@ -1035,28 +950,26 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="10">
-        <v>13</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="5"/>
       <c r="X16" s="6"/>
       <c r="Y16">
@@ -1066,28 +979,26 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="10">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6"/>
       <c r="Y17">
@@ -1097,28 +1008,26 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="10">
-        <v>15</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
       <c r="W18" s="5"/>
       <c r="X18" s="6"/>
       <c r="Y18">
@@ -1128,28 +1037,26 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="10">
-        <v>16</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
       <c r="W19" s="5"/>
       <c r="X19" s="6"/>
       <c r="Y19">
@@ -1159,28 +1066,26 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="10">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
       <c r="W20" s="5"/>
       <c r="X20" s="6"/>
       <c r="Y20">
@@ -1190,28 +1095,26 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="10">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
       <c r="W21" s="5"/>
       <c r="X21" s="6"/>
       <c r="Y21">
@@ -1221,28 +1124,26 @@
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
       <c r="W22" s="5"/>
       <c r="X22" s="6"/>
       <c r="Y22">
@@ -1252,28 +1153,26 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="10">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
       <c r="W23" s="5"/>
       <c r="X23" s="6"/>
       <c r="Y23">
@@ -1284,24 +1183,24 @@
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9"/>
@@ -1393,7 +1292,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y25"/>
+      <selection sqref="A1:X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UserControl tervek.xlsx
+++ b/UserControl tervek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilia\Desktop\Minden\Iskola\2_14_SZFT\Asztali_mobil\Asztali_alk\2021_11_04_dama_GE_PB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B3E7F9-EE6A-449C-8F92-6AB0EC7824B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE6BBE-679A-4088-B753-B4D248F525A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D82FC3B4-29AC-4FE7-BD71-1F187BD784F9}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,13 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1645,7 +1652,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z26"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,28 +1664,28 @@
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="23"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="35"/>
       <c r="W1" s="35"/>
       <c r="X1" s="35"/>
@@ -1690,24 +1697,24 @@
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="24"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
       <c r="X2" s="29"/>
@@ -2432,10 +2439,11 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="P1:U2"/>
     <mergeCell ref="C4:V23"/>
+    <mergeCell ref="D1:K2"/>
+    <mergeCell ref="N1:U2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2446,7 +2454,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y25"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,7 +3236,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+      <selection sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UserControl tervek.xlsx
+++ b/UserControl tervek.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilia\Desktop\Minden\Iskola\2_14_SZFT\Asztali_mobil\Asztali_alk\2021_11_04_dama_GE_PB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asztali_git\dama_GE_PB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E63EF-F225-48BD-B9C6-5F27D19A2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D82FC3B4-29AC-4FE7-BD71-1F187BD784F9}"/>
+    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,108 +461,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,6 +474,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBB25B4-8E0C-48F8-AA02-BDC4B44E0668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -906,119 +905,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
       <c r="Y1" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
       <c r="Y2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
       <c r="Y3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33"/>
       <c r="Y4" s="3">
         <v>4</v>
       </c>
@@ -1072,23 +1071,23 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="6"/>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="21"/>
       <c r="V7" s="6"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -1099,22 +1098,22 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
       <c r="V8" s="6"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -1188,18 +1187,18 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1219,16 +1218,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1277,18 +1276,18 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1308,16 +1307,16 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1366,18 +1365,18 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1397,16 +1396,16 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1503,18 +1502,18 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1534,16 +1533,16 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -1675,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400A3E06-905F-4D6B-87C8-0361C8AC8D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -1692,28 +1691,28 @@
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
@@ -1725,24 +1724,24 @@
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -1782,28 +1781,28 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="3">
@@ -1813,26 +1812,26 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="3">
@@ -1842,26 +1841,26 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="3">
@@ -1871,26 +1870,26 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="3">
@@ -1900,26 +1899,26 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="3">
@@ -1929,26 +1928,26 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="3">
@@ -1958,26 +1957,26 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="3">
@@ -1987,26 +1986,26 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="3">
@@ -2016,26 +2015,26 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="3">
@@ -2045,26 +2044,26 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="3">
@@ -2074,26 +2073,26 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="3">
@@ -2103,26 +2102,26 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="3">
@@ -2132,26 +2131,26 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="3">
@@ -2161,26 +2160,26 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="3">
@@ -2190,26 +2189,26 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="3">
@@ -2219,26 +2218,26 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="3">
@@ -2248,26 +2247,26 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="3">
@@ -2277,26 +2276,26 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="3">
@@ -2306,26 +2305,26 @@
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="3">
@@ -2335,26 +2334,26 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="3">
@@ -2478,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F7A26B-B3DA-4686-A93C-E67CCFD8C418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,8 +2496,8 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -2524,8 +2523,8 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -2551,8 +2550,8 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -2578,8 +2577,8 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -2605,8 +2604,8 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -2632,8 +2631,8 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2659,8 +2658,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -2717,8 +2716,8 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -2746,8 +2745,8 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
@@ -2793,382 +2792,382 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
       <c r="Y12" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50"/>
       <c r="Y13" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
       <c r="Y14" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="50"/>
       <c r="Y15" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="50"/>
       <c r="Y16" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="50"/>
       <c r="Y17" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="50"/>
       <c r="Y18" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="50"/>
       <c r="Y19" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="41"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="46"/>
       <c r="Y20" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
       <c r="Y21" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="41"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="46"/>
       <c r="Y22" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="46"/>
       <c r="Y23" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="48"/>
       <c r="Y24" s="3">
         <v>24</v>
       </c>
@@ -3260,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815BE050-C3E4-498A-B207-E17CD0414611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3270,214 +3269,214 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
       <c r="Y1" s="1">
         <v>1</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
       <c r="Y2" s="3">
         <v>2</v>
       </c>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
       <c r="Y3" s="3">
         <v>3</v>
       </c>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
       <c r="Y4" s="3">
         <v>4</v>
       </c>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
       <c r="Y5" s="3">
         <v>5</v>
       </c>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
       <c r="Y6" s="3">
         <v>6</v>
       </c>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="3">
         <v>7</v>
       </c>
@@ -3490,214 +3489,214 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
       <c r="Y9" s="3">
         <v>9</v>
       </c>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="3">
         <v>10</v>
       </c>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="3">
         <v>11</v>
       </c>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="3">
         <v>12</v>
       </c>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
       <c r="Y13" s="3">
         <v>13</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
       <c r="Y14" s="3">
         <v>14</v>
       </c>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="3">
         <v>15</v>
       </c>
@@ -3710,214 +3709,214 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
       <c r="Y17" s="3">
         <v>17</v>
       </c>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
       <c r="Y18" s="3">
         <v>18</v>
       </c>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
       <c r="Y19" s="3">
         <v>19</v>
       </c>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="3">
         <v>20</v>
       </c>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="3">
         <v>21</v>
       </c>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="3">
         <v>22</v>
       </c>
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="3">
         <v>23</v>
       </c>
@@ -4071,738 +4070,666 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3B79EA-50A7-4DE7-9A6B-76D467833A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="1">
         <v>1</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="3">
         <v>2</v>
       </c>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
       <c r="Y3" s="3">
         <v>3</v>
       </c>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="3">
         <v>4</v>
       </c>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="3">
         <v>5</v>
       </c>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
       <c r="Y6" s="3">
         <v>6</v>
       </c>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
       <c r="Y7" s="3">
         <v>7</v>
       </c>
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="3">
         <v>8</v>
       </c>
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="3">
         <v>9</v>
       </c>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="3">
         <v>10</v>
       </c>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="3">
         <v>11</v>
       </c>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="3">
         <v>12</v>
       </c>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
       <c r="Y13" s="3">
         <v>13</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
       <c r="Y14" s="3">
         <v>14</v>
       </c>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
       <c r="Y15" s="3">
         <v>15</v>
       </c>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="3">
         <v>16</v>
       </c>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="3">
         <v>17</v>
       </c>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
       <c r="Y18" s="3">
         <v>18</v>
       </c>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="3">
         <v>19</v>
       </c>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="3">
         <v>20</v>
       </c>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="3">
         <v>21</v>
       </c>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
       <c r="Y22" s="3">
         <v>22</v>
       </c>
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="3">
         <v>23</v>
       </c>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="3">
         <v>24</v>
       </c>
@@ -4914,10 +4841,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:U4"/>
-    <mergeCell ref="D13:U16"/>
-    <mergeCell ref="D7:U10"/>
-    <mergeCell ref="D19:U22"/>
+    <mergeCell ref="D2:U5"/>
+    <mergeCell ref="D14:U17"/>
+    <mergeCell ref="D8:U11"/>
+    <mergeCell ref="D20:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
